--- a/文档/开发历程.xlsx
+++ b/文档/开发历程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2016年9月28</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>新建github仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文章相关表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,13 +410,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -462,6 +468,9 @@
       </c>
       <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/文档/开发历程.xlsx
+++ b/文档/开发历程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>2016年9月28</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>修改文章相关表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,6 +477,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>42715</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/开发历程.xlsx
+++ b/文档/开发历程.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>2016年9月28</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>文章服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate实现dao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,6 +489,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>42716</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
